--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jadha\Documents\UiPath\REF_Tebular_data\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EB9374F-8F5E-4C7C-A10B-0D3A9F470A36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AB62430-87A2-4FAD-A3C8-6FAAFDD76A1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="51">
   <si>
     <t>Name</t>
   </si>
@@ -170,6 +170,12 @@
   </si>
   <si>
     <t>ManualTransactionThreshold</t>
+  </si>
+  <si>
+    <t>LogFilePath</t>
+  </si>
+  <si>
+    <t>C:\Users\jadha\Documents\UiPath\REF_Tebular_data\Data\Output\Log.xlsx</t>
   </si>
 </sst>
 </file>
@@ -548,7 +554,7 @@
   <dimension ref="A1:Z997"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -646,7 +652,14 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="9" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" t="s">
+        <v>50</v>
+      </c>
+    </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="12" spans="1:26" ht="14.25" customHeight="1"/>
